--- a/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11968</v>
+        <v>12246</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11425</v>
+        <v>12246</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11425</v>
+        <v>12063</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>11425</v>
+        <v>12063</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11280</v>
+        <v>11873</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>11280</v>
+        <v>11873</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>11280</v>
+        <v>11873</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>11239</v>
+        <v>11873</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>11239</v>
+        <v>11603</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>11239</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9918</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>9918</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>9918</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>9094</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>9094</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>8853</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>8853</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8853</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>8853</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8820</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8820</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8820</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8820</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8820</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8758</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8758</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8730</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8730</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8730</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8420</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8420</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>7817</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>7817</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>7817</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>7817</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>7817</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7817</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7817</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7817</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7817</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7817</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7815</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7815</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>7815</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7815</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7767</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7736</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7734</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7734</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7734</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7734</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7734</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7734</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7734</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7734</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7310</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7310</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7310</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7310</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7310</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7293</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7293</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7293</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7293</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7293</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7293</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7293</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7293</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="171">

--- a/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12246</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12246</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>12063</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>12063</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11873</v>
+        <v>11905</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>11873</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>11873</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>11873</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>11603</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10395</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>10395</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10395</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10395</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>10395</v>
+        <v>11049</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>10395</v>
+        <v>11049</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>10395</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="18">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>10176</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>10176</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>10176</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>10176</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>10176</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>10176</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>10176</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>10176</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>10176</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>9860</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>9751</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>9751</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>9751</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>9751</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>9751</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>9472</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>9472</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>9472</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>9472</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>8899</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>8899</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>8899</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>8899</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>8899</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>8899</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>8899</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>8532</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>8510</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>8239</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>8239</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>8239</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>8239</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>8239</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>8239</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>8239</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>8232</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7890</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7318</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7318</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7310</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7295</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7295</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7295</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7295</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7295</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7295</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7293</v>
+        <v>9943</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12002</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12002</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>12002</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>12002</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11905</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>11575</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>11049</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>11049</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>10950</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>10389</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>10389</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>10389</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>10389</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>9943</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>9943</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>9943</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>9943</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>9943</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>9943</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>9943</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>9943</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>9943</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>9943</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>9943</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>9943</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>9943</v>
+        <v>7293</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8527</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8527</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>8527</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8432</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8018</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>7900</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>7900</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>7900</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>7900</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>7900</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7750</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7748</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7310</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7310</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7310</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7293</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7293</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7293</v>
+        <v>7310</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8128</v>
+        <v>12976</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8128</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>8128</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>8128</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8128</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>8128</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8128</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8128</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>8128</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8128</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>8128</v>
+        <v>10019</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>8128</v>
+        <v>10019</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>8128</v>
+        <v>10019</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>8128</v>
+        <v>10019</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>8128</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>8128</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>8128</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8128</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>8128</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8128</v>
+        <v>8674</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8128</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8128</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8128</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8128</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>8128</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>8128</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>8128</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>8128</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>8128</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>8128</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>8128</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>8128</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>8128</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7312</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7312</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7312</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7312</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7310</v>
+        <v>7293</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_0/run_26.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12976</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11533</v>
+        <v>11624</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11533</v>
+        <v>11624</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>11533</v>
+        <v>11624</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11533</v>
+        <v>11624</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>11533</v>
+        <v>11090</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10939</v>
+        <v>11090</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>10093</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>10093</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10093</v>
+        <v>10196</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>10019</v>
+        <v>10196</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10019</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10019</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>10019</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>9720</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>9720</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>9101</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>9101</v>
+        <v>9781</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>9101</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8674</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8365</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8365</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8365</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8365</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8343</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8343</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8343</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8343</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8343</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8343</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8343</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>8343</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>8343</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>8245</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>8245</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>8245</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>8245</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>8245</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>8042</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>8042</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>8042</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>8042</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>8042</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>8042</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>8042</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>8042</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7320</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7320</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7320</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7295</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7295</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7295</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7295</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7295</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7295</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7295</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7295</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7293</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7293</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7293</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="172">
@@ -3141,6 +3141,8256 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>26</v>
+      </c>
+      <c r="B253" t="n">
+        <v>251</v>
+      </c>
+      <c r="C253" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>26</v>
+      </c>
+      <c r="B254" t="n">
+        <v>252</v>
+      </c>
+      <c r="C254" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>26</v>
+      </c>
+      <c r="B255" t="n">
+        <v>253</v>
+      </c>
+      <c r="C255" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>26</v>
+      </c>
+      <c r="B256" t="n">
+        <v>254</v>
+      </c>
+      <c r="C256" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>26</v>
+      </c>
+      <c r="B257" t="n">
+        <v>255</v>
+      </c>
+      <c r="C257" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>26</v>
+      </c>
+      <c r="B258" t="n">
+        <v>256</v>
+      </c>
+      <c r="C258" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>26</v>
+      </c>
+      <c r="B259" t="n">
+        <v>257</v>
+      </c>
+      <c r="C259" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>26</v>
+      </c>
+      <c r="B260" t="n">
+        <v>258</v>
+      </c>
+      <c r="C260" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>26</v>
+      </c>
+      <c r="B261" t="n">
+        <v>259</v>
+      </c>
+      <c r="C261" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>26</v>
+      </c>
+      <c r="B262" t="n">
+        <v>260</v>
+      </c>
+      <c r="C262" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>26</v>
+      </c>
+      <c r="B263" t="n">
+        <v>261</v>
+      </c>
+      <c r="C263" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>26</v>
+      </c>
+      <c r="B264" t="n">
+        <v>262</v>
+      </c>
+      <c r="C264" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>26</v>
+      </c>
+      <c r="B265" t="n">
+        <v>263</v>
+      </c>
+      <c r="C265" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>26</v>
+      </c>
+      <c r="B266" t="n">
+        <v>264</v>
+      </c>
+      <c r="C266" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>26</v>
+      </c>
+      <c r="B267" t="n">
+        <v>265</v>
+      </c>
+      <c r="C267" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>26</v>
+      </c>
+      <c r="B268" t="n">
+        <v>266</v>
+      </c>
+      <c r="C268" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>26</v>
+      </c>
+      <c r="B269" t="n">
+        <v>267</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>26</v>
+      </c>
+      <c r="B270" t="n">
+        <v>268</v>
+      </c>
+      <c r="C270" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>26</v>
+      </c>
+      <c r="B271" t="n">
+        <v>269</v>
+      </c>
+      <c r="C271" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>26</v>
+      </c>
+      <c r="B272" t="n">
+        <v>270</v>
+      </c>
+      <c r="C272" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>26</v>
+      </c>
+      <c r="B273" t="n">
+        <v>271</v>
+      </c>
+      <c r="C273" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>26</v>
+      </c>
+      <c r="B274" t="n">
+        <v>272</v>
+      </c>
+      <c r="C274" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>26</v>
+      </c>
+      <c r="B275" t="n">
+        <v>273</v>
+      </c>
+      <c r="C275" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>26</v>
+      </c>
+      <c r="B276" t="n">
+        <v>274</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>26</v>
+      </c>
+      <c r="B277" t="n">
+        <v>275</v>
+      </c>
+      <c r="C277" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>26</v>
+      </c>
+      <c r="B278" t="n">
+        <v>276</v>
+      </c>
+      <c r="C278" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>26</v>
+      </c>
+      <c r="B279" t="n">
+        <v>277</v>
+      </c>
+      <c r="C279" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>26</v>
+      </c>
+      <c r="B280" t="n">
+        <v>278</v>
+      </c>
+      <c r="C280" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>26</v>
+      </c>
+      <c r="B281" t="n">
+        <v>279</v>
+      </c>
+      <c r="C281" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>26</v>
+      </c>
+      <c r="B282" t="n">
+        <v>280</v>
+      </c>
+      <c r="C282" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>26</v>
+      </c>
+      <c r="B283" t="n">
+        <v>281</v>
+      </c>
+      <c r="C283" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>26</v>
+      </c>
+      <c r="B284" t="n">
+        <v>282</v>
+      </c>
+      <c r="C284" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>26</v>
+      </c>
+      <c r="B285" t="n">
+        <v>283</v>
+      </c>
+      <c r="C285" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>26</v>
+      </c>
+      <c r="B286" t="n">
+        <v>284</v>
+      </c>
+      <c r="C286" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>26</v>
+      </c>
+      <c r="B287" t="n">
+        <v>285</v>
+      </c>
+      <c r="C287" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>26</v>
+      </c>
+      <c r="B288" t="n">
+        <v>286</v>
+      </c>
+      <c r="C288" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>26</v>
+      </c>
+      <c r="B289" t="n">
+        <v>287</v>
+      </c>
+      <c r="C289" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>26</v>
+      </c>
+      <c r="B290" t="n">
+        <v>288</v>
+      </c>
+      <c r="C290" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>26</v>
+      </c>
+      <c r="B291" t="n">
+        <v>289</v>
+      </c>
+      <c r="C291" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>26</v>
+      </c>
+      <c r="B292" t="n">
+        <v>290</v>
+      </c>
+      <c r="C292" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>26</v>
+      </c>
+      <c r="B293" t="n">
+        <v>291</v>
+      </c>
+      <c r="C293" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>26</v>
+      </c>
+      <c r="B294" t="n">
+        <v>292</v>
+      </c>
+      <c r="C294" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>26</v>
+      </c>
+      <c r="B295" t="n">
+        <v>293</v>
+      </c>
+      <c r="C295" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>26</v>
+      </c>
+      <c r="B296" t="n">
+        <v>294</v>
+      </c>
+      <c r="C296" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>26</v>
+      </c>
+      <c r="B297" t="n">
+        <v>295</v>
+      </c>
+      <c r="C297" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>26</v>
+      </c>
+      <c r="B298" t="n">
+        <v>296</v>
+      </c>
+      <c r="C298" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>26</v>
+      </c>
+      <c r="B299" t="n">
+        <v>297</v>
+      </c>
+      <c r="C299" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>26</v>
+      </c>
+      <c r="B300" t="n">
+        <v>298</v>
+      </c>
+      <c r="C300" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>26</v>
+      </c>
+      <c r="B301" t="n">
+        <v>299</v>
+      </c>
+      <c r="C301" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>26</v>
+      </c>
+      <c r="B302" t="n">
+        <v>300</v>
+      </c>
+      <c r="C302" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>26</v>
+      </c>
+      <c r="B303" t="n">
+        <v>301</v>
+      </c>
+      <c r="C303" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>26</v>
+      </c>
+      <c r="B304" t="n">
+        <v>302</v>
+      </c>
+      <c r="C304" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>26</v>
+      </c>
+      <c r="B305" t="n">
+        <v>303</v>
+      </c>
+      <c r="C305" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>26</v>
+      </c>
+      <c r="B306" t="n">
+        <v>304</v>
+      </c>
+      <c r="C306" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>26</v>
+      </c>
+      <c r="B307" t="n">
+        <v>305</v>
+      </c>
+      <c r="C307" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>26</v>
+      </c>
+      <c r="B308" t="n">
+        <v>306</v>
+      </c>
+      <c r="C308" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>26</v>
+      </c>
+      <c r="B309" t="n">
+        <v>307</v>
+      </c>
+      <c r="C309" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>26</v>
+      </c>
+      <c r="B310" t="n">
+        <v>308</v>
+      </c>
+      <c r="C310" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>26</v>
+      </c>
+      <c r="B311" t="n">
+        <v>309</v>
+      </c>
+      <c r="C311" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>26</v>
+      </c>
+      <c r="B312" t="n">
+        <v>310</v>
+      </c>
+      <c r="C312" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>26</v>
+      </c>
+      <c r="B313" t="n">
+        <v>311</v>
+      </c>
+      <c r="C313" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>26</v>
+      </c>
+      <c r="B314" t="n">
+        <v>312</v>
+      </c>
+      <c r="C314" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>26</v>
+      </c>
+      <c r="B315" t="n">
+        <v>313</v>
+      </c>
+      <c r="C315" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>26</v>
+      </c>
+      <c r="B316" t="n">
+        <v>314</v>
+      </c>
+      <c r="C316" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>26</v>
+      </c>
+      <c r="B317" t="n">
+        <v>315</v>
+      </c>
+      <c r="C317" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>26</v>
+      </c>
+      <c r="B318" t="n">
+        <v>316</v>
+      </c>
+      <c r="C318" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>26</v>
+      </c>
+      <c r="B319" t="n">
+        <v>317</v>
+      </c>
+      <c r="C319" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>26</v>
+      </c>
+      <c r="B320" t="n">
+        <v>318</v>
+      </c>
+      <c r="C320" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>26</v>
+      </c>
+      <c r="B321" t="n">
+        <v>319</v>
+      </c>
+      <c r="C321" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>26</v>
+      </c>
+      <c r="B322" t="n">
+        <v>320</v>
+      </c>
+      <c r="C322" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>26</v>
+      </c>
+      <c r="B323" t="n">
+        <v>321</v>
+      </c>
+      <c r="C323" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>26</v>
+      </c>
+      <c r="B324" t="n">
+        <v>322</v>
+      </c>
+      <c r="C324" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>26</v>
+      </c>
+      <c r="B325" t="n">
+        <v>323</v>
+      </c>
+      <c r="C325" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>26</v>
+      </c>
+      <c r="B326" t="n">
+        <v>324</v>
+      </c>
+      <c r="C326" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>26</v>
+      </c>
+      <c r="B327" t="n">
+        <v>325</v>
+      </c>
+      <c r="C327" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>26</v>
+      </c>
+      <c r="B328" t="n">
+        <v>326</v>
+      </c>
+      <c r="C328" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>26</v>
+      </c>
+      <c r="B329" t="n">
+        <v>327</v>
+      </c>
+      <c r="C329" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>26</v>
+      </c>
+      <c r="B330" t="n">
+        <v>328</v>
+      </c>
+      <c r="C330" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>26</v>
+      </c>
+      <c r="B331" t="n">
+        <v>329</v>
+      </c>
+      <c r="C331" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>26</v>
+      </c>
+      <c r="B332" t="n">
+        <v>330</v>
+      </c>
+      <c r="C332" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>26</v>
+      </c>
+      <c r="B333" t="n">
+        <v>331</v>
+      </c>
+      <c r="C333" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>26</v>
+      </c>
+      <c r="B334" t="n">
+        <v>332</v>
+      </c>
+      <c r="C334" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>26</v>
+      </c>
+      <c r="B335" t="n">
+        <v>333</v>
+      </c>
+      <c r="C335" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>26</v>
+      </c>
+      <c r="B336" t="n">
+        <v>334</v>
+      </c>
+      <c r="C336" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>26</v>
+      </c>
+      <c r="B337" t="n">
+        <v>335</v>
+      </c>
+      <c r="C337" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>26</v>
+      </c>
+      <c r="B338" t="n">
+        <v>336</v>
+      </c>
+      <c r="C338" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>26</v>
+      </c>
+      <c r="B339" t="n">
+        <v>337</v>
+      </c>
+      <c r="C339" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>26</v>
+      </c>
+      <c r="B340" t="n">
+        <v>338</v>
+      </c>
+      <c r="C340" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>26</v>
+      </c>
+      <c r="B341" t="n">
+        <v>339</v>
+      </c>
+      <c r="C341" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>26</v>
+      </c>
+      <c r="B342" t="n">
+        <v>340</v>
+      </c>
+      <c r="C342" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>26</v>
+      </c>
+      <c r="B343" t="n">
+        <v>341</v>
+      </c>
+      <c r="C343" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>26</v>
+      </c>
+      <c r="B344" t="n">
+        <v>342</v>
+      </c>
+      <c r="C344" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>26</v>
+      </c>
+      <c r="B345" t="n">
+        <v>343</v>
+      </c>
+      <c r="C345" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>26</v>
+      </c>
+      <c r="B346" t="n">
+        <v>344</v>
+      </c>
+      <c r="C346" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>26</v>
+      </c>
+      <c r="B347" t="n">
+        <v>345</v>
+      </c>
+      <c r="C347" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>26</v>
+      </c>
+      <c r="B348" t="n">
+        <v>346</v>
+      </c>
+      <c r="C348" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>26</v>
+      </c>
+      <c r="B349" t="n">
+        <v>347</v>
+      </c>
+      <c r="C349" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>26</v>
+      </c>
+      <c r="B350" t="n">
+        <v>348</v>
+      </c>
+      <c r="C350" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>26</v>
+      </c>
+      <c r="B351" t="n">
+        <v>349</v>
+      </c>
+      <c r="C351" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>26</v>
+      </c>
+      <c r="B352" t="n">
+        <v>350</v>
+      </c>
+      <c r="C352" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>26</v>
+      </c>
+      <c r="B353" t="n">
+        <v>351</v>
+      </c>
+      <c r="C353" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>26</v>
+      </c>
+      <c r="B354" t="n">
+        <v>352</v>
+      </c>
+      <c r="C354" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>26</v>
+      </c>
+      <c r="B355" t="n">
+        <v>353</v>
+      </c>
+      <c r="C355" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>26</v>
+      </c>
+      <c r="B356" t="n">
+        <v>354</v>
+      </c>
+      <c r="C356" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>26</v>
+      </c>
+      <c r="B357" t="n">
+        <v>355</v>
+      </c>
+      <c r="C357" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>26</v>
+      </c>
+      <c r="B358" t="n">
+        <v>356</v>
+      </c>
+      <c r="C358" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>26</v>
+      </c>
+      <c r="B359" t="n">
+        <v>357</v>
+      </c>
+      <c r="C359" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>26</v>
+      </c>
+      <c r="B360" t="n">
+        <v>358</v>
+      </c>
+      <c r="C360" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>26</v>
+      </c>
+      <c r="B361" t="n">
+        <v>359</v>
+      </c>
+      <c r="C361" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>26</v>
+      </c>
+      <c r="B362" t="n">
+        <v>360</v>
+      </c>
+      <c r="C362" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>26</v>
+      </c>
+      <c r="B363" t="n">
+        <v>361</v>
+      </c>
+      <c r="C363" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>26</v>
+      </c>
+      <c r="B364" t="n">
+        <v>362</v>
+      </c>
+      <c r="C364" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>26</v>
+      </c>
+      <c r="B365" t="n">
+        <v>363</v>
+      </c>
+      <c r="C365" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>26</v>
+      </c>
+      <c r="B366" t="n">
+        <v>364</v>
+      </c>
+      <c r="C366" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>26</v>
+      </c>
+      <c r="B367" t="n">
+        <v>365</v>
+      </c>
+      <c r="C367" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>26</v>
+      </c>
+      <c r="B368" t="n">
+        <v>366</v>
+      </c>
+      <c r="C368" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>26</v>
+      </c>
+      <c r="B369" t="n">
+        <v>367</v>
+      </c>
+      <c r="C369" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>26</v>
+      </c>
+      <c r="B370" t="n">
+        <v>368</v>
+      </c>
+      <c r="C370" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>26</v>
+      </c>
+      <c r="B371" t="n">
+        <v>369</v>
+      </c>
+      <c r="C371" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>26</v>
+      </c>
+      <c r="B372" t="n">
+        <v>370</v>
+      </c>
+      <c r="C372" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>26</v>
+      </c>
+      <c r="B373" t="n">
+        <v>371</v>
+      </c>
+      <c r="C373" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>26</v>
+      </c>
+      <c r="B374" t="n">
+        <v>372</v>
+      </c>
+      <c r="C374" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>26</v>
+      </c>
+      <c r="B375" t="n">
+        <v>373</v>
+      </c>
+      <c r="C375" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>26</v>
+      </c>
+      <c r="B376" t="n">
+        <v>374</v>
+      </c>
+      <c r="C376" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>26</v>
+      </c>
+      <c r="B377" t="n">
+        <v>375</v>
+      </c>
+      <c r="C377" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>26</v>
+      </c>
+      <c r="B378" t="n">
+        <v>376</v>
+      </c>
+      <c r="C378" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>26</v>
+      </c>
+      <c r="B379" t="n">
+        <v>377</v>
+      </c>
+      <c r="C379" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>26</v>
+      </c>
+      <c r="B380" t="n">
+        <v>378</v>
+      </c>
+      <c r="C380" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>26</v>
+      </c>
+      <c r="B381" t="n">
+        <v>379</v>
+      </c>
+      <c r="C381" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>26</v>
+      </c>
+      <c r="B382" t="n">
+        <v>380</v>
+      </c>
+      <c r="C382" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>26</v>
+      </c>
+      <c r="B383" t="n">
+        <v>381</v>
+      </c>
+      <c r="C383" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>26</v>
+      </c>
+      <c r="B384" t="n">
+        <v>382</v>
+      </c>
+      <c r="C384" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>26</v>
+      </c>
+      <c r="B385" t="n">
+        <v>383</v>
+      </c>
+      <c r="C385" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>26</v>
+      </c>
+      <c r="B386" t="n">
+        <v>384</v>
+      </c>
+      <c r="C386" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>26</v>
+      </c>
+      <c r="B387" t="n">
+        <v>385</v>
+      </c>
+      <c r="C387" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>26</v>
+      </c>
+      <c r="B388" t="n">
+        <v>386</v>
+      </c>
+      <c r="C388" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>26</v>
+      </c>
+      <c r="B389" t="n">
+        <v>387</v>
+      </c>
+      <c r="C389" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>26</v>
+      </c>
+      <c r="B390" t="n">
+        <v>388</v>
+      </c>
+      <c r="C390" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>26</v>
+      </c>
+      <c r="B391" t="n">
+        <v>389</v>
+      </c>
+      <c r="C391" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>26</v>
+      </c>
+      <c r="B392" t="n">
+        <v>390</v>
+      </c>
+      <c r="C392" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>26</v>
+      </c>
+      <c r="B393" t="n">
+        <v>391</v>
+      </c>
+      <c r="C393" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>26</v>
+      </c>
+      <c r="B394" t="n">
+        <v>392</v>
+      </c>
+      <c r="C394" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>26</v>
+      </c>
+      <c r="B395" t="n">
+        <v>393</v>
+      </c>
+      <c r="C395" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>26</v>
+      </c>
+      <c r="B396" t="n">
+        <v>394</v>
+      </c>
+      <c r="C396" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>26</v>
+      </c>
+      <c r="B397" t="n">
+        <v>395</v>
+      </c>
+      <c r="C397" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>26</v>
+      </c>
+      <c r="B398" t="n">
+        <v>396</v>
+      </c>
+      <c r="C398" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>26</v>
+      </c>
+      <c r="B399" t="n">
+        <v>397</v>
+      </c>
+      <c r="C399" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>26</v>
+      </c>
+      <c r="B400" t="n">
+        <v>398</v>
+      </c>
+      <c r="C400" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>26</v>
+      </c>
+      <c r="B401" t="n">
+        <v>399</v>
+      </c>
+      <c r="C401" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>26</v>
+      </c>
+      <c r="B402" t="n">
+        <v>400</v>
+      </c>
+      <c r="C402" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>26</v>
+      </c>
+      <c r="B403" t="n">
+        <v>401</v>
+      </c>
+      <c r="C403" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>26</v>
+      </c>
+      <c r="B404" t="n">
+        <v>402</v>
+      </c>
+      <c r="C404" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>26</v>
+      </c>
+      <c r="B405" t="n">
+        <v>403</v>
+      </c>
+      <c r="C405" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>26</v>
+      </c>
+      <c r="B406" t="n">
+        <v>404</v>
+      </c>
+      <c r="C406" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>26</v>
+      </c>
+      <c r="B407" t="n">
+        <v>405</v>
+      </c>
+      <c r="C407" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>26</v>
+      </c>
+      <c r="B408" t="n">
+        <v>406</v>
+      </c>
+      <c r="C408" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>26</v>
+      </c>
+      <c r="B409" t="n">
+        <v>407</v>
+      </c>
+      <c r="C409" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>26</v>
+      </c>
+      <c r="B410" t="n">
+        <v>408</v>
+      </c>
+      <c r="C410" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>26</v>
+      </c>
+      <c r="B411" t="n">
+        <v>409</v>
+      </c>
+      <c r="C411" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>26</v>
+      </c>
+      <c r="B412" t="n">
+        <v>410</v>
+      </c>
+      <c r="C412" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>26</v>
+      </c>
+      <c r="B413" t="n">
+        <v>411</v>
+      </c>
+      <c r="C413" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>26</v>
+      </c>
+      <c r="B414" t="n">
+        <v>412</v>
+      </c>
+      <c r="C414" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>26</v>
+      </c>
+      <c r="B415" t="n">
+        <v>413</v>
+      </c>
+      <c r="C415" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>26</v>
+      </c>
+      <c r="B416" t="n">
+        <v>414</v>
+      </c>
+      <c r="C416" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>26</v>
+      </c>
+      <c r="B417" t="n">
+        <v>415</v>
+      </c>
+      <c r="C417" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>26</v>
+      </c>
+      <c r="B418" t="n">
+        <v>416</v>
+      </c>
+      <c r="C418" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>26</v>
+      </c>
+      <c r="B419" t="n">
+        <v>417</v>
+      </c>
+      <c r="C419" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>26</v>
+      </c>
+      <c r="B420" t="n">
+        <v>418</v>
+      </c>
+      <c r="C420" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>26</v>
+      </c>
+      <c r="B421" t="n">
+        <v>419</v>
+      </c>
+      <c r="C421" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>26</v>
+      </c>
+      <c r="B422" t="n">
+        <v>420</v>
+      </c>
+      <c r="C422" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>26</v>
+      </c>
+      <c r="B423" t="n">
+        <v>421</v>
+      </c>
+      <c r="C423" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>26</v>
+      </c>
+      <c r="B424" t="n">
+        <v>422</v>
+      </c>
+      <c r="C424" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>26</v>
+      </c>
+      <c r="B425" t="n">
+        <v>423</v>
+      </c>
+      <c r="C425" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>26</v>
+      </c>
+      <c r="B426" t="n">
+        <v>424</v>
+      </c>
+      <c r="C426" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>26</v>
+      </c>
+      <c r="B427" t="n">
+        <v>425</v>
+      </c>
+      <c r="C427" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>26</v>
+      </c>
+      <c r="B428" t="n">
+        <v>426</v>
+      </c>
+      <c r="C428" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>26</v>
+      </c>
+      <c r="B429" t="n">
+        <v>427</v>
+      </c>
+      <c r="C429" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>26</v>
+      </c>
+      <c r="B430" t="n">
+        <v>428</v>
+      </c>
+      <c r="C430" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>26</v>
+      </c>
+      <c r="B431" t="n">
+        <v>429</v>
+      </c>
+      <c r="C431" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>26</v>
+      </c>
+      <c r="B432" t="n">
+        <v>430</v>
+      </c>
+      <c r="C432" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>26</v>
+      </c>
+      <c r="B433" t="n">
+        <v>431</v>
+      </c>
+      <c r="C433" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>26</v>
+      </c>
+      <c r="B434" t="n">
+        <v>432</v>
+      </c>
+      <c r="C434" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>26</v>
+      </c>
+      <c r="B435" t="n">
+        <v>433</v>
+      </c>
+      <c r="C435" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>26</v>
+      </c>
+      <c r="B436" t="n">
+        <v>434</v>
+      </c>
+      <c r="C436" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>26</v>
+      </c>
+      <c r="B437" t="n">
+        <v>435</v>
+      </c>
+      <c r="C437" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>26</v>
+      </c>
+      <c r="B438" t="n">
+        <v>436</v>
+      </c>
+      <c r="C438" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>26</v>
+      </c>
+      <c r="B439" t="n">
+        <v>437</v>
+      </c>
+      <c r="C439" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>26</v>
+      </c>
+      <c r="B440" t="n">
+        <v>438</v>
+      </c>
+      <c r="C440" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>26</v>
+      </c>
+      <c r="B441" t="n">
+        <v>439</v>
+      </c>
+      <c r="C441" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>26</v>
+      </c>
+      <c r="B442" t="n">
+        <v>440</v>
+      </c>
+      <c r="C442" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>26</v>
+      </c>
+      <c r="B443" t="n">
+        <v>441</v>
+      </c>
+      <c r="C443" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>26</v>
+      </c>
+      <c r="B444" t="n">
+        <v>442</v>
+      </c>
+      <c r="C444" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>26</v>
+      </c>
+      <c r="B445" t="n">
+        <v>443</v>
+      </c>
+      <c r="C445" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>26</v>
+      </c>
+      <c r="B446" t="n">
+        <v>444</v>
+      </c>
+      <c r="C446" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>26</v>
+      </c>
+      <c r="B447" t="n">
+        <v>445</v>
+      </c>
+      <c r="C447" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>26</v>
+      </c>
+      <c r="B448" t="n">
+        <v>446</v>
+      </c>
+      <c r="C448" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>26</v>
+      </c>
+      <c r="B449" t="n">
+        <v>447</v>
+      </c>
+      <c r="C449" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>26</v>
+      </c>
+      <c r="B450" t="n">
+        <v>448</v>
+      </c>
+      <c r="C450" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>26</v>
+      </c>
+      <c r="B451" t="n">
+        <v>449</v>
+      </c>
+      <c r="C451" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>26</v>
+      </c>
+      <c r="B452" t="n">
+        <v>450</v>
+      </c>
+      <c r="C452" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>26</v>
+      </c>
+      <c r="B453" t="n">
+        <v>451</v>
+      </c>
+      <c r="C453" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>26</v>
+      </c>
+      <c r="B454" t="n">
+        <v>452</v>
+      </c>
+      <c r="C454" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>26</v>
+      </c>
+      <c r="B455" t="n">
+        <v>453</v>
+      </c>
+      <c r="C455" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>26</v>
+      </c>
+      <c r="B456" t="n">
+        <v>454</v>
+      </c>
+      <c r="C456" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>26</v>
+      </c>
+      <c r="B457" t="n">
+        <v>455</v>
+      </c>
+      <c r="C457" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>26</v>
+      </c>
+      <c r="B458" t="n">
+        <v>456</v>
+      </c>
+      <c r="C458" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>26</v>
+      </c>
+      <c r="B459" t="n">
+        <v>457</v>
+      </c>
+      <c r="C459" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>26</v>
+      </c>
+      <c r="B460" t="n">
+        <v>458</v>
+      </c>
+      <c r="C460" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>26</v>
+      </c>
+      <c r="B461" t="n">
+        <v>459</v>
+      </c>
+      <c r="C461" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>26</v>
+      </c>
+      <c r="B462" t="n">
+        <v>460</v>
+      </c>
+      <c r="C462" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>26</v>
+      </c>
+      <c r="B463" t="n">
+        <v>461</v>
+      </c>
+      <c r="C463" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>26</v>
+      </c>
+      <c r="B464" t="n">
+        <v>462</v>
+      </c>
+      <c r="C464" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>26</v>
+      </c>
+      <c r="B465" t="n">
+        <v>463</v>
+      </c>
+      <c r="C465" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>26</v>
+      </c>
+      <c r="B466" t="n">
+        <v>464</v>
+      </c>
+      <c r="C466" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>26</v>
+      </c>
+      <c r="B467" t="n">
+        <v>465</v>
+      </c>
+      <c r="C467" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>26</v>
+      </c>
+      <c r="B468" t="n">
+        <v>466</v>
+      </c>
+      <c r="C468" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>26</v>
+      </c>
+      <c r="B469" t="n">
+        <v>467</v>
+      </c>
+      <c r="C469" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>26</v>
+      </c>
+      <c r="B470" t="n">
+        <v>468</v>
+      </c>
+      <c r="C470" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>26</v>
+      </c>
+      <c r="B471" t="n">
+        <v>469</v>
+      </c>
+      <c r="C471" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>26</v>
+      </c>
+      <c r="B472" t="n">
+        <v>470</v>
+      </c>
+      <c r="C472" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>26</v>
+      </c>
+      <c r="B473" t="n">
+        <v>471</v>
+      </c>
+      <c r="C473" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>26</v>
+      </c>
+      <c r="B474" t="n">
+        <v>472</v>
+      </c>
+      <c r="C474" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>26</v>
+      </c>
+      <c r="B475" t="n">
+        <v>473</v>
+      </c>
+      <c r="C475" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>26</v>
+      </c>
+      <c r="B476" t="n">
+        <v>474</v>
+      </c>
+      <c r="C476" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>26</v>
+      </c>
+      <c r="B477" t="n">
+        <v>475</v>
+      </c>
+      <c r="C477" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>26</v>
+      </c>
+      <c r="B478" t="n">
+        <v>476</v>
+      </c>
+      <c r="C478" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>26</v>
+      </c>
+      <c r="B479" t="n">
+        <v>477</v>
+      </c>
+      <c r="C479" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>26</v>
+      </c>
+      <c r="B480" t="n">
+        <v>478</v>
+      </c>
+      <c r="C480" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>26</v>
+      </c>
+      <c r="B481" t="n">
+        <v>479</v>
+      </c>
+      <c r="C481" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>26</v>
+      </c>
+      <c r="B482" t="n">
+        <v>480</v>
+      </c>
+      <c r="C482" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>26</v>
+      </c>
+      <c r="B483" t="n">
+        <v>481</v>
+      </c>
+      <c r="C483" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>26</v>
+      </c>
+      <c r="B484" t="n">
+        <v>482</v>
+      </c>
+      <c r="C484" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>26</v>
+      </c>
+      <c r="B485" t="n">
+        <v>483</v>
+      </c>
+      <c r="C485" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>26</v>
+      </c>
+      <c r="B486" t="n">
+        <v>484</v>
+      </c>
+      <c r="C486" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>26</v>
+      </c>
+      <c r="B487" t="n">
+        <v>485</v>
+      </c>
+      <c r="C487" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>26</v>
+      </c>
+      <c r="B488" t="n">
+        <v>486</v>
+      </c>
+      <c r="C488" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>26</v>
+      </c>
+      <c r="B489" t="n">
+        <v>487</v>
+      </c>
+      <c r="C489" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>26</v>
+      </c>
+      <c r="B490" t="n">
+        <v>488</v>
+      </c>
+      <c r="C490" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>26</v>
+      </c>
+      <c r="B491" t="n">
+        <v>489</v>
+      </c>
+      <c r="C491" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>26</v>
+      </c>
+      <c r="B492" t="n">
+        <v>490</v>
+      </c>
+      <c r="C492" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>26</v>
+      </c>
+      <c r="B493" t="n">
+        <v>491</v>
+      </c>
+      <c r="C493" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>26</v>
+      </c>
+      <c r="B494" t="n">
+        <v>492</v>
+      </c>
+      <c r="C494" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>26</v>
+      </c>
+      <c r="B495" t="n">
+        <v>493</v>
+      </c>
+      <c r="C495" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>26</v>
+      </c>
+      <c r="B496" t="n">
+        <v>494</v>
+      </c>
+      <c r="C496" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>26</v>
+      </c>
+      <c r="B497" t="n">
+        <v>495</v>
+      </c>
+      <c r="C497" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>26</v>
+      </c>
+      <c r="B498" t="n">
+        <v>496</v>
+      </c>
+      <c r="C498" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>26</v>
+      </c>
+      <c r="B499" t="n">
+        <v>497</v>
+      </c>
+      <c r="C499" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>26</v>
+      </c>
+      <c r="B500" t="n">
+        <v>498</v>
+      </c>
+      <c r="C500" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>26</v>
+      </c>
+      <c r="B501" t="n">
+        <v>499</v>
+      </c>
+      <c r="C501" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>26</v>
+      </c>
+      <c r="B502" t="n">
+        <v>500</v>
+      </c>
+      <c r="C502" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>26</v>
+      </c>
+      <c r="B503" t="n">
+        <v>501</v>
+      </c>
+      <c r="C503" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>26</v>
+      </c>
+      <c r="B504" t="n">
+        <v>502</v>
+      </c>
+      <c r="C504" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>26</v>
+      </c>
+      <c r="B505" t="n">
+        <v>503</v>
+      </c>
+      <c r="C505" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>26</v>
+      </c>
+      <c r="B506" t="n">
+        <v>504</v>
+      </c>
+      <c r="C506" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>26</v>
+      </c>
+      <c r="B507" t="n">
+        <v>505</v>
+      </c>
+      <c r="C507" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>26</v>
+      </c>
+      <c r="B508" t="n">
+        <v>506</v>
+      </c>
+      <c r="C508" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>26</v>
+      </c>
+      <c r="B509" t="n">
+        <v>507</v>
+      </c>
+      <c r="C509" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>26</v>
+      </c>
+      <c r="B510" t="n">
+        <v>508</v>
+      </c>
+      <c r="C510" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>26</v>
+      </c>
+      <c r="B511" t="n">
+        <v>509</v>
+      </c>
+      <c r="C511" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>26</v>
+      </c>
+      <c r="B512" t="n">
+        <v>510</v>
+      </c>
+      <c r="C512" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>26</v>
+      </c>
+      <c r="B513" t="n">
+        <v>511</v>
+      </c>
+      <c r="C513" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>26</v>
+      </c>
+      <c r="B514" t="n">
+        <v>512</v>
+      </c>
+      <c r="C514" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>26</v>
+      </c>
+      <c r="B515" t="n">
+        <v>513</v>
+      </c>
+      <c r="C515" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>26</v>
+      </c>
+      <c r="B516" t="n">
+        <v>514</v>
+      </c>
+      <c r="C516" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>26</v>
+      </c>
+      <c r="B517" t="n">
+        <v>515</v>
+      </c>
+      <c r="C517" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>26</v>
+      </c>
+      <c r="B518" t="n">
+        <v>516</v>
+      </c>
+      <c r="C518" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>26</v>
+      </c>
+      <c r="B519" t="n">
+        <v>517</v>
+      </c>
+      <c r="C519" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>26</v>
+      </c>
+      <c r="B520" t="n">
+        <v>518</v>
+      </c>
+      <c r="C520" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>26</v>
+      </c>
+      <c r="B521" t="n">
+        <v>519</v>
+      </c>
+      <c r="C521" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>26</v>
+      </c>
+      <c r="B522" t="n">
+        <v>520</v>
+      </c>
+      <c r="C522" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>26</v>
+      </c>
+      <c r="B523" t="n">
+        <v>521</v>
+      </c>
+      <c r="C523" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>26</v>
+      </c>
+      <c r="B524" t="n">
+        <v>522</v>
+      </c>
+      <c r="C524" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>26</v>
+      </c>
+      <c r="B525" t="n">
+        <v>523</v>
+      </c>
+      <c r="C525" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>26</v>
+      </c>
+      <c r="B526" t="n">
+        <v>524</v>
+      </c>
+      <c r="C526" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>26</v>
+      </c>
+      <c r="B527" t="n">
+        <v>525</v>
+      </c>
+      <c r="C527" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>26</v>
+      </c>
+      <c r="B528" t="n">
+        <v>526</v>
+      </c>
+      <c r="C528" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>26</v>
+      </c>
+      <c r="B529" t="n">
+        <v>527</v>
+      </c>
+      <c r="C529" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>26</v>
+      </c>
+      <c r="B530" t="n">
+        <v>528</v>
+      </c>
+      <c r="C530" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>26</v>
+      </c>
+      <c r="B531" t="n">
+        <v>529</v>
+      </c>
+      <c r="C531" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>26</v>
+      </c>
+      <c r="B532" t="n">
+        <v>530</v>
+      </c>
+      <c r="C532" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>26</v>
+      </c>
+      <c r="B533" t="n">
+        <v>531</v>
+      </c>
+      <c r="C533" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>26</v>
+      </c>
+      <c r="B534" t="n">
+        <v>532</v>
+      </c>
+      <c r="C534" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>26</v>
+      </c>
+      <c r="B535" t="n">
+        <v>533</v>
+      </c>
+      <c r="C535" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>26</v>
+      </c>
+      <c r="B536" t="n">
+        <v>534</v>
+      </c>
+      <c r="C536" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>26</v>
+      </c>
+      <c r="B537" t="n">
+        <v>535</v>
+      </c>
+      <c r="C537" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>26</v>
+      </c>
+      <c r="B538" t="n">
+        <v>536</v>
+      </c>
+      <c r="C538" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>26</v>
+      </c>
+      <c r="B539" t="n">
+        <v>537</v>
+      </c>
+      <c r="C539" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>26</v>
+      </c>
+      <c r="B540" t="n">
+        <v>538</v>
+      </c>
+      <c r="C540" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>26</v>
+      </c>
+      <c r="B541" t="n">
+        <v>539</v>
+      </c>
+      <c r="C541" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>26</v>
+      </c>
+      <c r="B542" t="n">
+        <v>540</v>
+      </c>
+      <c r="C542" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>26</v>
+      </c>
+      <c r="B543" t="n">
+        <v>541</v>
+      </c>
+      <c r="C543" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>26</v>
+      </c>
+      <c r="B544" t="n">
+        <v>542</v>
+      </c>
+      <c r="C544" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>26</v>
+      </c>
+      <c r="B545" t="n">
+        <v>543</v>
+      </c>
+      <c r="C545" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>26</v>
+      </c>
+      <c r="B546" t="n">
+        <v>544</v>
+      </c>
+      <c r="C546" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>26</v>
+      </c>
+      <c r="B547" t="n">
+        <v>545</v>
+      </c>
+      <c r="C547" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>26</v>
+      </c>
+      <c r="B548" t="n">
+        <v>546</v>
+      </c>
+      <c r="C548" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>26</v>
+      </c>
+      <c r="B549" t="n">
+        <v>547</v>
+      </c>
+      <c r="C549" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>26</v>
+      </c>
+      <c r="B550" t="n">
+        <v>548</v>
+      </c>
+      <c r="C550" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>26</v>
+      </c>
+      <c r="B551" t="n">
+        <v>549</v>
+      </c>
+      <c r="C551" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>26</v>
+      </c>
+      <c r="B552" t="n">
+        <v>550</v>
+      </c>
+      <c r="C552" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>26</v>
+      </c>
+      <c r="B553" t="n">
+        <v>551</v>
+      </c>
+      <c r="C553" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>26</v>
+      </c>
+      <c r="B554" t="n">
+        <v>552</v>
+      </c>
+      <c r="C554" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>26</v>
+      </c>
+      <c r="B555" t="n">
+        <v>553</v>
+      </c>
+      <c r="C555" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>26</v>
+      </c>
+      <c r="B556" t="n">
+        <v>554</v>
+      </c>
+      <c r="C556" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>26</v>
+      </c>
+      <c r="B557" t="n">
+        <v>555</v>
+      </c>
+      <c r="C557" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>26</v>
+      </c>
+      <c r="B558" t="n">
+        <v>556</v>
+      </c>
+      <c r="C558" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>26</v>
+      </c>
+      <c r="B559" t="n">
+        <v>557</v>
+      </c>
+      <c r="C559" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>26</v>
+      </c>
+      <c r="B560" t="n">
+        <v>558</v>
+      </c>
+      <c r="C560" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>26</v>
+      </c>
+      <c r="B561" t="n">
+        <v>559</v>
+      </c>
+      <c r="C561" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>26</v>
+      </c>
+      <c r="B562" t="n">
+        <v>560</v>
+      </c>
+      <c r="C562" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>26</v>
+      </c>
+      <c r="B563" t="n">
+        <v>561</v>
+      </c>
+      <c r="C563" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>26</v>
+      </c>
+      <c r="B564" t="n">
+        <v>562</v>
+      </c>
+      <c r="C564" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>26</v>
+      </c>
+      <c r="B565" t="n">
+        <v>563</v>
+      </c>
+      <c r="C565" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>26</v>
+      </c>
+      <c r="B566" t="n">
+        <v>564</v>
+      </c>
+      <c r="C566" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>26</v>
+      </c>
+      <c r="B567" t="n">
+        <v>565</v>
+      </c>
+      <c r="C567" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>26</v>
+      </c>
+      <c r="B568" t="n">
+        <v>566</v>
+      </c>
+      <c r="C568" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>26</v>
+      </c>
+      <c r="B569" t="n">
+        <v>567</v>
+      </c>
+      <c r="C569" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>26</v>
+      </c>
+      <c r="B570" t="n">
+        <v>568</v>
+      </c>
+      <c r="C570" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>26</v>
+      </c>
+      <c r="B571" t="n">
+        <v>569</v>
+      </c>
+      <c r="C571" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>26</v>
+      </c>
+      <c r="B572" t="n">
+        <v>570</v>
+      </c>
+      <c r="C572" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>26</v>
+      </c>
+      <c r="B573" t="n">
+        <v>571</v>
+      </c>
+      <c r="C573" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>26</v>
+      </c>
+      <c r="B574" t="n">
+        <v>572</v>
+      </c>
+      <c r="C574" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>26</v>
+      </c>
+      <c r="B575" t="n">
+        <v>573</v>
+      </c>
+      <c r="C575" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>26</v>
+      </c>
+      <c r="B576" t="n">
+        <v>574</v>
+      </c>
+      <c r="C576" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>26</v>
+      </c>
+      <c r="B577" t="n">
+        <v>575</v>
+      </c>
+      <c r="C577" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>26</v>
+      </c>
+      <c r="B578" t="n">
+        <v>576</v>
+      </c>
+      <c r="C578" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>26</v>
+      </c>
+      <c r="B579" t="n">
+        <v>577</v>
+      </c>
+      <c r="C579" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>26</v>
+      </c>
+      <c r="B580" t="n">
+        <v>578</v>
+      </c>
+      <c r="C580" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>26</v>
+      </c>
+      <c r="B581" t="n">
+        <v>579</v>
+      </c>
+      <c r="C581" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>26</v>
+      </c>
+      <c r="B582" t="n">
+        <v>580</v>
+      </c>
+      <c r="C582" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>26</v>
+      </c>
+      <c r="B583" t="n">
+        <v>581</v>
+      </c>
+      <c r="C583" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>26</v>
+      </c>
+      <c r="B584" t="n">
+        <v>582</v>
+      </c>
+      <c r="C584" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>26</v>
+      </c>
+      <c r="B585" t="n">
+        <v>583</v>
+      </c>
+      <c r="C585" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>26</v>
+      </c>
+      <c r="B586" t="n">
+        <v>584</v>
+      </c>
+      <c r="C586" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>26</v>
+      </c>
+      <c r="B587" t="n">
+        <v>585</v>
+      </c>
+      <c r="C587" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>26</v>
+      </c>
+      <c r="B588" t="n">
+        <v>586</v>
+      </c>
+      <c r="C588" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>26</v>
+      </c>
+      <c r="B589" t="n">
+        <v>587</v>
+      </c>
+      <c r="C589" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>26</v>
+      </c>
+      <c r="B590" t="n">
+        <v>588</v>
+      </c>
+      <c r="C590" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>26</v>
+      </c>
+      <c r="B591" t="n">
+        <v>589</v>
+      </c>
+      <c r="C591" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>26</v>
+      </c>
+      <c r="B592" t="n">
+        <v>590</v>
+      </c>
+      <c r="C592" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>26</v>
+      </c>
+      <c r="B593" t="n">
+        <v>591</v>
+      </c>
+      <c r="C593" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>26</v>
+      </c>
+      <c r="B594" t="n">
+        <v>592</v>
+      </c>
+      <c r="C594" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>26</v>
+      </c>
+      <c r="B595" t="n">
+        <v>593</v>
+      </c>
+      <c r="C595" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>26</v>
+      </c>
+      <c r="B596" t="n">
+        <v>594</v>
+      </c>
+      <c r="C596" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>26</v>
+      </c>
+      <c r="B597" t="n">
+        <v>595</v>
+      </c>
+      <c r="C597" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>26</v>
+      </c>
+      <c r="B598" t="n">
+        <v>596</v>
+      </c>
+      <c r="C598" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>26</v>
+      </c>
+      <c r="B599" t="n">
+        <v>597</v>
+      </c>
+      <c r="C599" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>26</v>
+      </c>
+      <c r="B600" t="n">
+        <v>598</v>
+      </c>
+      <c r="C600" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>26</v>
+      </c>
+      <c r="B601" t="n">
+        <v>599</v>
+      </c>
+      <c r="C601" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>26</v>
+      </c>
+      <c r="B602" t="n">
+        <v>600</v>
+      </c>
+      <c r="C602" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>26</v>
+      </c>
+      <c r="B603" t="n">
+        <v>601</v>
+      </c>
+      <c r="C603" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>26</v>
+      </c>
+      <c r="B604" t="n">
+        <v>602</v>
+      </c>
+      <c r="C604" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>26</v>
+      </c>
+      <c r="B605" t="n">
+        <v>603</v>
+      </c>
+      <c r="C605" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>26</v>
+      </c>
+      <c r="B606" t="n">
+        <v>604</v>
+      </c>
+      <c r="C606" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>26</v>
+      </c>
+      <c r="B607" t="n">
+        <v>605</v>
+      </c>
+      <c r="C607" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>26</v>
+      </c>
+      <c r="B608" t="n">
+        <v>606</v>
+      </c>
+      <c r="C608" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>26</v>
+      </c>
+      <c r="B609" t="n">
+        <v>607</v>
+      </c>
+      <c r="C609" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>26</v>
+      </c>
+      <c r="B610" t="n">
+        <v>608</v>
+      </c>
+      <c r="C610" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>26</v>
+      </c>
+      <c r="B611" t="n">
+        <v>609</v>
+      </c>
+      <c r="C611" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>26</v>
+      </c>
+      <c r="B612" t="n">
+        <v>610</v>
+      </c>
+      <c r="C612" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>26</v>
+      </c>
+      <c r="B613" t="n">
+        <v>611</v>
+      </c>
+      <c r="C613" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>26</v>
+      </c>
+      <c r="B614" t="n">
+        <v>612</v>
+      </c>
+      <c r="C614" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>26</v>
+      </c>
+      <c r="B615" t="n">
+        <v>613</v>
+      </c>
+      <c r="C615" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>26</v>
+      </c>
+      <c r="B616" t="n">
+        <v>614</v>
+      </c>
+      <c r="C616" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>26</v>
+      </c>
+      <c r="B617" t="n">
+        <v>615</v>
+      </c>
+      <c r="C617" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>26</v>
+      </c>
+      <c r="B618" t="n">
+        <v>616</v>
+      </c>
+      <c r="C618" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>26</v>
+      </c>
+      <c r="B619" t="n">
+        <v>617</v>
+      </c>
+      <c r="C619" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>26</v>
+      </c>
+      <c r="B620" t="n">
+        <v>618</v>
+      </c>
+      <c r="C620" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>26</v>
+      </c>
+      <c r="B621" t="n">
+        <v>619</v>
+      </c>
+      <c r="C621" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>26</v>
+      </c>
+      <c r="B622" t="n">
+        <v>620</v>
+      </c>
+      <c r="C622" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>26</v>
+      </c>
+      <c r="B623" t="n">
+        <v>621</v>
+      </c>
+      <c r="C623" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>26</v>
+      </c>
+      <c r="B624" t="n">
+        <v>622</v>
+      </c>
+      <c r="C624" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>26</v>
+      </c>
+      <c r="B625" t="n">
+        <v>623</v>
+      </c>
+      <c r="C625" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>26</v>
+      </c>
+      <c r="B626" t="n">
+        <v>624</v>
+      </c>
+      <c r="C626" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>26</v>
+      </c>
+      <c r="B627" t="n">
+        <v>625</v>
+      </c>
+      <c r="C627" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>26</v>
+      </c>
+      <c r="B628" t="n">
+        <v>626</v>
+      </c>
+      <c r="C628" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>26</v>
+      </c>
+      <c r="B629" t="n">
+        <v>627</v>
+      </c>
+      <c r="C629" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>26</v>
+      </c>
+      <c r="B630" t="n">
+        <v>628</v>
+      </c>
+      <c r="C630" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>26</v>
+      </c>
+      <c r="B631" t="n">
+        <v>629</v>
+      </c>
+      <c r="C631" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>26</v>
+      </c>
+      <c r="B632" t="n">
+        <v>630</v>
+      </c>
+      <c r="C632" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>26</v>
+      </c>
+      <c r="B633" t="n">
+        <v>631</v>
+      </c>
+      <c r="C633" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>26</v>
+      </c>
+      <c r="B634" t="n">
+        <v>632</v>
+      </c>
+      <c r="C634" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>26</v>
+      </c>
+      <c r="B635" t="n">
+        <v>633</v>
+      </c>
+      <c r="C635" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>26</v>
+      </c>
+      <c r="B636" t="n">
+        <v>634</v>
+      </c>
+      <c r="C636" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>26</v>
+      </c>
+      <c r="B637" t="n">
+        <v>635</v>
+      </c>
+      <c r="C637" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>26</v>
+      </c>
+      <c r="B638" t="n">
+        <v>636</v>
+      </c>
+      <c r="C638" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>26</v>
+      </c>
+      <c r="B639" t="n">
+        <v>637</v>
+      </c>
+      <c r="C639" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>26</v>
+      </c>
+      <c r="B640" t="n">
+        <v>638</v>
+      </c>
+      <c r="C640" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>26</v>
+      </c>
+      <c r="B641" t="n">
+        <v>639</v>
+      </c>
+      <c r="C641" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>26</v>
+      </c>
+      <c r="B642" t="n">
+        <v>640</v>
+      </c>
+      <c r="C642" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>26</v>
+      </c>
+      <c r="B643" t="n">
+        <v>641</v>
+      </c>
+      <c r="C643" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>26</v>
+      </c>
+      <c r="B644" t="n">
+        <v>642</v>
+      </c>
+      <c r="C644" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>26</v>
+      </c>
+      <c r="B645" t="n">
+        <v>643</v>
+      </c>
+      <c r="C645" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>26</v>
+      </c>
+      <c r="B646" t="n">
+        <v>644</v>
+      </c>
+      <c r="C646" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>26</v>
+      </c>
+      <c r="B647" t="n">
+        <v>645</v>
+      </c>
+      <c r="C647" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>26</v>
+      </c>
+      <c r="B648" t="n">
+        <v>646</v>
+      </c>
+      <c r="C648" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>26</v>
+      </c>
+      <c r="B649" t="n">
+        <v>647</v>
+      </c>
+      <c r="C649" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>26</v>
+      </c>
+      <c r="B650" t="n">
+        <v>648</v>
+      </c>
+      <c r="C650" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>26</v>
+      </c>
+      <c r="B651" t="n">
+        <v>649</v>
+      </c>
+      <c r="C651" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>26</v>
+      </c>
+      <c r="B652" t="n">
+        <v>650</v>
+      </c>
+      <c r="C652" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>26</v>
+      </c>
+      <c r="B653" t="n">
+        <v>651</v>
+      </c>
+      <c r="C653" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>26</v>
+      </c>
+      <c r="B654" t="n">
+        <v>652</v>
+      </c>
+      <c r="C654" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>26</v>
+      </c>
+      <c r="B655" t="n">
+        <v>653</v>
+      </c>
+      <c r="C655" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>26</v>
+      </c>
+      <c r="B656" t="n">
+        <v>654</v>
+      </c>
+      <c r="C656" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>26</v>
+      </c>
+      <c r="B657" t="n">
+        <v>655</v>
+      </c>
+      <c r="C657" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>26</v>
+      </c>
+      <c r="B658" t="n">
+        <v>656</v>
+      </c>
+      <c r="C658" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>26</v>
+      </c>
+      <c r="B659" t="n">
+        <v>657</v>
+      </c>
+      <c r="C659" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>26</v>
+      </c>
+      <c r="B660" t="n">
+        <v>658</v>
+      </c>
+      <c r="C660" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>26</v>
+      </c>
+      <c r="B661" t="n">
+        <v>659</v>
+      </c>
+      <c r="C661" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>26</v>
+      </c>
+      <c r="B662" t="n">
+        <v>660</v>
+      </c>
+      <c r="C662" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>26</v>
+      </c>
+      <c r="B663" t="n">
+        <v>661</v>
+      </c>
+      <c r="C663" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>26</v>
+      </c>
+      <c r="B664" t="n">
+        <v>662</v>
+      </c>
+      <c r="C664" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>26</v>
+      </c>
+      <c r="B665" t="n">
+        <v>663</v>
+      </c>
+      <c r="C665" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>26</v>
+      </c>
+      <c r="B666" t="n">
+        <v>664</v>
+      </c>
+      <c r="C666" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>26</v>
+      </c>
+      <c r="B667" t="n">
+        <v>665</v>
+      </c>
+      <c r="C667" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>26</v>
+      </c>
+      <c r="B668" t="n">
+        <v>666</v>
+      </c>
+      <c r="C668" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>26</v>
+      </c>
+      <c r="B669" t="n">
+        <v>667</v>
+      </c>
+      <c r="C669" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>26</v>
+      </c>
+      <c r="B670" t="n">
+        <v>668</v>
+      </c>
+      <c r="C670" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>26</v>
+      </c>
+      <c r="B671" t="n">
+        <v>669</v>
+      </c>
+      <c r="C671" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>26</v>
+      </c>
+      <c r="B672" t="n">
+        <v>670</v>
+      </c>
+      <c r="C672" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>26</v>
+      </c>
+      <c r="B673" t="n">
+        <v>671</v>
+      </c>
+      <c r="C673" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>26</v>
+      </c>
+      <c r="B674" t="n">
+        <v>672</v>
+      </c>
+      <c r="C674" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>26</v>
+      </c>
+      <c r="B675" t="n">
+        <v>673</v>
+      </c>
+      <c r="C675" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>26</v>
+      </c>
+      <c r="B676" t="n">
+        <v>674</v>
+      </c>
+      <c r="C676" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>26</v>
+      </c>
+      <c r="B677" t="n">
+        <v>675</v>
+      </c>
+      <c r="C677" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>26</v>
+      </c>
+      <c r="B678" t="n">
+        <v>676</v>
+      </c>
+      <c r="C678" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>26</v>
+      </c>
+      <c r="B679" t="n">
+        <v>677</v>
+      </c>
+      <c r="C679" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>26</v>
+      </c>
+      <c r="B680" t="n">
+        <v>678</v>
+      </c>
+      <c r="C680" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>26</v>
+      </c>
+      <c r="B681" t="n">
+        <v>679</v>
+      </c>
+      <c r="C681" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>26</v>
+      </c>
+      <c r="B682" t="n">
+        <v>680</v>
+      </c>
+      <c r="C682" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>26</v>
+      </c>
+      <c r="B683" t="n">
+        <v>681</v>
+      </c>
+      <c r="C683" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>26</v>
+      </c>
+      <c r="B684" t="n">
+        <v>682</v>
+      </c>
+      <c r="C684" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>26</v>
+      </c>
+      <c r="B685" t="n">
+        <v>683</v>
+      </c>
+      <c r="C685" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>26</v>
+      </c>
+      <c r="B686" t="n">
+        <v>684</v>
+      </c>
+      <c r="C686" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>26</v>
+      </c>
+      <c r="B687" t="n">
+        <v>685</v>
+      </c>
+      <c r="C687" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>26</v>
+      </c>
+      <c r="B688" t="n">
+        <v>686</v>
+      </c>
+      <c r="C688" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>26</v>
+      </c>
+      <c r="B689" t="n">
+        <v>687</v>
+      </c>
+      <c r="C689" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>26</v>
+      </c>
+      <c r="B690" t="n">
+        <v>688</v>
+      </c>
+      <c r="C690" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>26</v>
+      </c>
+      <c r="B691" t="n">
+        <v>689</v>
+      </c>
+      <c r="C691" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>26</v>
+      </c>
+      <c r="B692" t="n">
+        <v>690</v>
+      </c>
+      <c r="C692" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>26</v>
+      </c>
+      <c r="B693" t="n">
+        <v>691</v>
+      </c>
+      <c r="C693" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>26</v>
+      </c>
+      <c r="B694" t="n">
+        <v>692</v>
+      </c>
+      <c r="C694" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>26</v>
+      </c>
+      <c r="B695" t="n">
+        <v>693</v>
+      </c>
+      <c r="C695" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>26</v>
+      </c>
+      <c r="B696" t="n">
+        <v>694</v>
+      </c>
+      <c r="C696" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>26</v>
+      </c>
+      <c r="B697" t="n">
+        <v>695</v>
+      </c>
+      <c r="C697" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>26</v>
+      </c>
+      <c r="B698" t="n">
+        <v>696</v>
+      </c>
+      <c r="C698" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>26</v>
+      </c>
+      <c r="B699" t="n">
+        <v>697</v>
+      </c>
+      <c r="C699" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>26</v>
+      </c>
+      <c r="B700" t="n">
+        <v>698</v>
+      </c>
+      <c r="C700" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>26</v>
+      </c>
+      <c r="B701" t="n">
+        <v>699</v>
+      </c>
+      <c r="C701" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>26</v>
+      </c>
+      <c r="B702" t="n">
+        <v>700</v>
+      </c>
+      <c r="C702" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>26</v>
+      </c>
+      <c r="B703" t="n">
+        <v>701</v>
+      </c>
+      <c r="C703" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>26</v>
+      </c>
+      <c r="B704" t="n">
+        <v>702</v>
+      </c>
+      <c r="C704" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>26</v>
+      </c>
+      <c r="B705" t="n">
+        <v>703</v>
+      </c>
+      <c r="C705" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>26</v>
+      </c>
+      <c r="B706" t="n">
+        <v>704</v>
+      </c>
+      <c r="C706" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>26</v>
+      </c>
+      <c r="B707" t="n">
+        <v>705</v>
+      </c>
+      <c r="C707" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>26</v>
+      </c>
+      <c r="B708" t="n">
+        <v>706</v>
+      </c>
+      <c r="C708" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>26</v>
+      </c>
+      <c r="B709" t="n">
+        <v>707</v>
+      </c>
+      <c r="C709" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>26</v>
+      </c>
+      <c r="B710" t="n">
+        <v>708</v>
+      </c>
+      <c r="C710" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>26</v>
+      </c>
+      <c r="B711" t="n">
+        <v>709</v>
+      </c>
+      <c r="C711" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>26</v>
+      </c>
+      <c r="B712" t="n">
+        <v>710</v>
+      </c>
+      <c r="C712" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>26</v>
+      </c>
+      <c r="B713" t="n">
+        <v>711</v>
+      </c>
+      <c r="C713" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>26</v>
+      </c>
+      <c r="B714" t="n">
+        <v>712</v>
+      </c>
+      <c r="C714" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>26</v>
+      </c>
+      <c r="B715" t="n">
+        <v>713</v>
+      </c>
+      <c r="C715" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>26</v>
+      </c>
+      <c r="B716" t="n">
+        <v>714</v>
+      </c>
+      <c r="C716" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>26</v>
+      </c>
+      <c r="B717" t="n">
+        <v>715</v>
+      </c>
+      <c r="C717" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>26</v>
+      </c>
+      <c r="B718" t="n">
+        <v>716</v>
+      </c>
+      <c r="C718" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>26</v>
+      </c>
+      <c r="B719" t="n">
+        <v>717</v>
+      </c>
+      <c r="C719" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>26</v>
+      </c>
+      <c r="B720" t="n">
+        <v>718</v>
+      </c>
+      <c r="C720" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>26</v>
+      </c>
+      <c r="B721" t="n">
+        <v>719</v>
+      </c>
+      <c r="C721" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>26</v>
+      </c>
+      <c r="B722" t="n">
+        <v>720</v>
+      </c>
+      <c r="C722" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>26</v>
+      </c>
+      <c r="B723" t="n">
+        <v>721</v>
+      </c>
+      <c r="C723" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>26</v>
+      </c>
+      <c r="B724" t="n">
+        <v>722</v>
+      </c>
+      <c r="C724" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>26</v>
+      </c>
+      <c r="B725" t="n">
+        <v>723</v>
+      </c>
+      <c r="C725" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>26</v>
+      </c>
+      <c r="B726" t="n">
+        <v>724</v>
+      </c>
+      <c r="C726" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>26</v>
+      </c>
+      <c r="B727" t="n">
+        <v>725</v>
+      </c>
+      <c r="C727" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>26</v>
+      </c>
+      <c r="B728" t="n">
+        <v>726</v>
+      </c>
+      <c r="C728" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>26</v>
+      </c>
+      <c r="B729" t="n">
+        <v>727</v>
+      </c>
+      <c r="C729" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>26</v>
+      </c>
+      <c r="B730" t="n">
+        <v>728</v>
+      </c>
+      <c r="C730" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>26</v>
+      </c>
+      <c r="B731" t="n">
+        <v>729</v>
+      </c>
+      <c r="C731" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>26</v>
+      </c>
+      <c r="B732" t="n">
+        <v>730</v>
+      </c>
+      <c r="C732" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>26</v>
+      </c>
+      <c r="B733" t="n">
+        <v>731</v>
+      </c>
+      <c r="C733" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>26</v>
+      </c>
+      <c r="B734" t="n">
+        <v>732</v>
+      </c>
+      <c r="C734" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>26</v>
+      </c>
+      <c r="B735" t="n">
+        <v>733</v>
+      </c>
+      <c r="C735" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>26</v>
+      </c>
+      <c r="B736" t="n">
+        <v>734</v>
+      </c>
+      <c r="C736" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>26</v>
+      </c>
+      <c r="B737" t="n">
+        <v>735</v>
+      </c>
+      <c r="C737" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>26</v>
+      </c>
+      <c r="B738" t="n">
+        <v>736</v>
+      </c>
+      <c r="C738" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>26</v>
+      </c>
+      <c r="B739" t="n">
+        <v>737</v>
+      </c>
+      <c r="C739" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>26</v>
+      </c>
+      <c r="B740" t="n">
+        <v>738</v>
+      </c>
+      <c r="C740" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>26</v>
+      </c>
+      <c r="B741" t="n">
+        <v>739</v>
+      </c>
+      <c r="C741" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>26</v>
+      </c>
+      <c r="B742" t="n">
+        <v>740</v>
+      </c>
+      <c r="C742" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>26</v>
+      </c>
+      <c r="B743" t="n">
+        <v>741</v>
+      </c>
+      <c r="C743" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>26</v>
+      </c>
+      <c r="B744" t="n">
+        <v>742</v>
+      </c>
+      <c r="C744" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>26</v>
+      </c>
+      <c r="B745" t="n">
+        <v>743</v>
+      </c>
+      <c r="C745" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>26</v>
+      </c>
+      <c r="B746" t="n">
+        <v>744</v>
+      </c>
+      <c r="C746" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>26</v>
+      </c>
+      <c r="B747" t="n">
+        <v>745</v>
+      </c>
+      <c r="C747" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>26</v>
+      </c>
+      <c r="B748" t="n">
+        <v>746</v>
+      </c>
+      <c r="C748" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>26</v>
+      </c>
+      <c r="B749" t="n">
+        <v>747</v>
+      </c>
+      <c r="C749" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>26</v>
+      </c>
+      <c r="B750" t="n">
+        <v>748</v>
+      </c>
+      <c r="C750" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>26</v>
+      </c>
+      <c r="B751" t="n">
+        <v>749</v>
+      </c>
+      <c r="C751" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>26</v>
+      </c>
+      <c r="B752" t="n">
+        <v>750</v>
+      </c>
+      <c r="C752" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>26</v>
+      </c>
+      <c r="B753" t="n">
+        <v>751</v>
+      </c>
+      <c r="C753" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>26</v>
+      </c>
+      <c r="B754" t="n">
+        <v>752</v>
+      </c>
+      <c r="C754" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>26</v>
+      </c>
+      <c r="B755" t="n">
+        <v>753</v>
+      </c>
+      <c r="C755" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>26</v>
+      </c>
+      <c r="B756" t="n">
+        <v>754</v>
+      </c>
+      <c r="C756" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>26</v>
+      </c>
+      <c r="B757" t="n">
+        <v>755</v>
+      </c>
+      <c r="C757" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>26</v>
+      </c>
+      <c r="B758" t="n">
+        <v>756</v>
+      </c>
+      <c r="C758" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>26</v>
+      </c>
+      <c r="B759" t="n">
+        <v>757</v>
+      </c>
+      <c r="C759" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>26</v>
+      </c>
+      <c r="B760" t="n">
+        <v>758</v>
+      </c>
+      <c r="C760" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>26</v>
+      </c>
+      <c r="B761" t="n">
+        <v>759</v>
+      </c>
+      <c r="C761" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>26</v>
+      </c>
+      <c r="B762" t="n">
+        <v>760</v>
+      </c>
+      <c r="C762" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>26</v>
+      </c>
+      <c r="B763" t="n">
+        <v>761</v>
+      </c>
+      <c r="C763" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>26</v>
+      </c>
+      <c r="B764" t="n">
+        <v>762</v>
+      </c>
+      <c r="C764" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>26</v>
+      </c>
+      <c r="B765" t="n">
+        <v>763</v>
+      </c>
+      <c r="C765" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>26</v>
+      </c>
+      <c r="B766" t="n">
+        <v>764</v>
+      </c>
+      <c r="C766" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>26</v>
+      </c>
+      <c r="B767" t="n">
+        <v>765</v>
+      </c>
+      <c r="C767" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>26</v>
+      </c>
+      <c r="B768" t="n">
+        <v>766</v>
+      </c>
+      <c r="C768" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>26</v>
+      </c>
+      <c r="B769" t="n">
+        <v>767</v>
+      </c>
+      <c r="C769" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>26</v>
+      </c>
+      <c r="B770" t="n">
+        <v>768</v>
+      </c>
+      <c r="C770" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>26</v>
+      </c>
+      <c r="B771" t="n">
+        <v>769</v>
+      </c>
+      <c r="C771" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>26</v>
+      </c>
+      <c r="B772" t="n">
+        <v>770</v>
+      </c>
+      <c r="C772" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>26</v>
+      </c>
+      <c r="B773" t="n">
+        <v>771</v>
+      </c>
+      <c r="C773" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>26</v>
+      </c>
+      <c r="B774" t="n">
+        <v>772</v>
+      </c>
+      <c r="C774" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>26</v>
+      </c>
+      <c r="B775" t="n">
+        <v>773</v>
+      </c>
+      <c r="C775" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>26</v>
+      </c>
+      <c r="B776" t="n">
+        <v>774</v>
+      </c>
+      <c r="C776" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>26</v>
+      </c>
+      <c r="B777" t="n">
+        <v>775</v>
+      </c>
+      <c r="C777" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>26</v>
+      </c>
+      <c r="B778" t="n">
+        <v>776</v>
+      </c>
+      <c r="C778" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>26</v>
+      </c>
+      <c r="B779" t="n">
+        <v>777</v>
+      </c>
+      <c r="C779" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>26</v>
+      </c>
+      <c r="B780" t="n">
+        <v>778</v>
+      </c>
+      <c r="C780" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>26</v>
+      </c>
+      <c r="B781" t="n">
+        <v>779</v>
+      </c>
+      <c r="C781" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>26</v>
+      </c>
+      <c r="B782" t="n">
+        <v>780</v>
+      </c>
+      <c r="C782" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>26</v>
+      </c>
+      <c r="B783" t="n">
+        <v>781</v>
+      </c>
+      <c r="C783" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>26</v>
+      </c>
+      <c r="B784" t="n">
+        <v>782</v>
+      </c>
+      <c r="C784" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>26</v>
+      </c>
+      <c r="B785" t="n">
+        <v>783</v>
+      </c>
+      <c r="C785" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>26</v>
+      </c>
+      <c r="B786" t="n">
+        <v>784</v>
+      </c>
+      <c r="C786" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>26</v>
+      </c>
+      <c r="B787" t="n">
+        <v>785</v>
+      </c>
+      <c r="C787" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>26</v>
+      </c>
+      <c r="B788" t="n">
+        <v>786</v>
+      </c>
+      <c r="C788" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>26</v>
+      </c>
+      <c r="B789" t="n">
+        <v>787</v>
+      </c>
+      <c r="C789" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>26</v>
+      </c>
+      <c r="B790" t="n">
+        <v>788</v>
+      </c>
+      <c r="C790" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>26</v>
+      </c>
+      <c r="B791" t="n">
+        <v>789</v>
+      </c>
+      <c r="C791" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>26</v>
+      </c>
+      <c r="B792" t="n">
+        <v>790</v>
+      </c>
+      <c r="C792" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>26</v>
+      </c>
+      <c r="B793" t="n">
+        <v>791</v>
+      </c>
+      <c r="C793" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>26</v>
+      </c>
+      <c r="B794" t="n">
+        <v>792</v>
+      </c>
+      <c r="C794" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>26</v>
+      </c>
+      <c r="B795" t="n">
+        <v>793</v>
+      </c>
+      <c r="C795" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>26</v>
+      </c>
+      <c r="B796" t="n">
+        <v>794</v>
+      </c>
+      <c r="C796" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>26</v>
+      </c>
+      <c r="B797" t="n">
+        <v>795</v>
+      </c>
+      <c r="C797" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>26</v>
+      </c>
+      <c r="B798" t="n">
+        <v>796</v>
+      </c>
+      <c r="C798" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>26</v>
+      </c>
+      <c r="B799" t="n">
+        <v>797</v>
+      </c>
+      <c r="C799" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>26</v>
+      </c>
+      <c r="B800" t="n">
+        <v>798</v>
+      </c>
+      <c r="C800" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>26</v>
+      </c>
+      <c r="B801" t="n">
+        <v>799</v>
+      </c>
+      <c r="C801" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>26</v>
+      </c>
+      <c r="B802" t="n">
+        <v>800</v>
+      </c>
+      <c r="C802" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>26</v>
+      </c>
+      <c r="B803" t="n">
+        <v>801</v>
+      </c>
+      <c r="C803" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>26</v>
+      </c>
+      <c r="B804" t="n">
+        <v>802</v>
+      </c>
+      <c r="C804" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>26</v>
+      </c>
+      <c r="B805" t="n">
+        <v>803</v>
+      </c>
+      <c r="C805" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>26</v>
+      </c>
+      <c r="B806" t="n">
+        <v>804</v>
+      </c>
+      <c r="C806" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>26</v>
+      </c>
+      <c r="B807" t="n">
+        <v>805</v>
+      </c>
+      <c r="C807" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>26</v>
+      </c>
+      <c r="B808" t="n">
+        <v>806</v>
+      </c>
+      <c r="C808" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>26</v>
+      </c>
+      <c r="B809" t="n">
+        <v>807</v>
+      </c>
+      <c r="C809" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>26</v>
+      </c>
+      <c r="B810" t="n">
+        <v>808</v>
+      </c>
+      <c r="C810" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>26</v>
+      </c>
+      <c r="B811" t="n">
+        <v>809</v>
+      </c>
+      <c r="C811" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>26</v>
+      </c>
+      <c r="B812" t="n">
+        <v>810</v>
+      </c>
+      <c r="C812" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>26</v>
+      </c>
+      <c r="B813" t="n">
+        <v>811</v>
+      </c>
+      <c r="C813" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>26</v>
+      </c>
+      <c r="B814" t="n">
+        <v>812</v>
+      </c>
+      <c r="C814" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>26</v>
+      </c>
+      <c r="B815" t="n">
+        <v>813</v>
+      </c>
+      <c r="C815" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>26</v>
+      </c>
+      <c r="B816" t="n">
+        <v>814</v>
+      </c>
+      <c r="C816" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>26</v>
+      </c>
+      <c r="B817" t="n">
+        <v>815</v>
+      </c>
+      <c r="C817" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>26</v>
+      </c>
+      <c r="B818" t="n">
+        <v>816</v>
+      </c>
+      <c r="C818" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>26</v>
+      </c>
+      <c r="B819" t="n">
+        <v>817</v>
+      </c>
+      <c r="C819" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>26</v>
+      </c>
+      <c r="B820" t="n">
+        <v>818</v>
+      </c>
+      <c r="C820" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>26</v>
+      </c>
+      <c r="B821" t="n">
+        <v>819</v>
+      </c>
+      <c r="C821" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>26</v>
+      </c>
+      <c r="B822" t="n">
+        <v>820</v>
+      </c>
+      <c r="C822" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>26</v>
+      </c>
+      <c r="B823" t="n">
+        <v>821</v>
+      </c>
+      <c r="C823" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>26</v>
+      </c>
+      <c r="B824" t="n">
+        <v>822</v>
+      </c>
+      <c r="C824" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>26</v>
+      </c>
+      <c r="B825" t="n">
+        <v>823</v>
+      </c>
+      <c r="C825" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>26</v>
+      </c>
+      <c r="B826" t="n">
+        <v>824</v>
+      </c>
+      <c r="C826" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>26</v>
+      </c>
+      <c r="B827" t="n">
+        <v>825</v>
+      </c>
+      <c r="C827" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>26</v>
+      </c>
+      <c r="B828" t="n">
+        <v>826</v>
+      </c>
+      <c r="C828" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>26</v>
+      </c>
+      <c r="B829" t="n">
+        <v>827</v>
+      </c>
+      <c r="C829" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>26</v>
+      </c>
+      <c r="B830" t="n">
+        <v>828</v>
+      </c>
+      <c r="C830" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>26</v>
+      </c>
+      <c r="B831" t="n">
+        <v>829</v>
+      </c>
+      <c r="C831" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>26</v>
+      </c>
+      <c r="B832" t="n">
+        <v>830</v>
+      </c>
+      <c r="C832" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>26</v>
+      </c>
+      <c r="B833" t="n">
+        <v>831</v>
+      </c>
+      <c r="C833" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>26</v>
+      </c>
+      <c r="B834" t="n">
+        <v>832</v>
+      </c>
+      <c r="C834" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>26</v>
+      </c>
+      <c r="B835" t="n">
+        <v>833</v>
+      </c>
+      <c r="C835" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>26</v>
+      </c>
+      <c r="B836" t="n">
+        <v>834</v>
+      </c>
+      <c r="C836" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>26</v>
+      </c>
+      <c r="B837" t="n">
+        <v>835</v>
+      </c>
+      <c r="C837" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>26</v>
+      </c>
+      <c r="B838" t="n">
+        <v>836</v>
+      </c>
+      <c r="C838" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>26</v>
+      </c>
+      <c r="B839" t="n">
+        <v>837</v>
+      </c>
+      <c r="C839" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>26</v>
+      </c>
+      <c r="B840" t="n">
+        <v>838</v>
+      </c>
+      <c r="C840" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>26</v>
+      </c>
+      <c r="B841" t="n">
+        <v>839</v>
+      </c>
+      <c r="C841" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>26</v>
+      </c>
+      <c r="B842" t="n">
+        <v>840</v>
+      </c>
+      <c r="C842" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>26</v>
+      </c>
+      <c r="B843" t="n">
+        <v>841</v>
+      </c>
+      <c r="C843" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>26</v>
+      </c>
+      <c r="B844" t="n">
+        <v>842</v>
+      </c>
+      <c r="C844" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>26</v>
+      </c>
+      <c r="B845" t="n">
+        <v>843</v>
+      </c>
+      <c r="C845" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>26</v>
+      </c>
+      <c r="B846" t="n">
+        <v>844</v>
+      </c>
+      <c r="C846" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>26</v>
+      </c>
+      <c r="B847" t="n">
+        <v>845</v>
+      </c>
+      <c r="C847" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>26</v>
+      </c>
+      <c r="B848" t="n">
+        <v>846</v>
+      </c>
+      <c r="C848" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>26</v>
+      </c>
+      <c r="B849" t="n">
+        <v>847</v>
+      </c>
+      <c r="C849" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>26</v>
+      </c>
+      <c r="B850" t="n">
+        <v>848</v>
+      </c>
+      <c r="C850" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>26</v>
+      </c>
+      <c r="B851" t="n">
+        <v>849</v>
+      </c>
+      <c r="C851" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>26</v>
+      </c>
+      <c r="B852" t="n">
+        <v>850</v>
+      </c>
+      <c r="C852" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>26</v>
+      </c>
+      <c r="B853" t="n">
+        <v>851</v>
+      </c>
+      <c r="C853" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>26</v>
+      </c>
+      <c r="B854" t="n">
+        <v>852</v>
+      </c>
+      <c r="C854" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>26</v>
+      </c>
+      <c r="B855" t="n">
+        <v>853</v>
+      </c>
+      <c r="C855" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>26</v>
+      </c>
+      <c r="B856" t="n">
+        <v>854</v>
+      </c>
+      <c r="C856" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>26</v>
+      </c>
+      <c r="B857" t="n">
+        <v>855</v>
+      </c>
+      <c r="C857" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>26</v>
+      </c>
+      <c r="B858" t="n">
+        <v>856</v>
+      </c>
+      <c r="C858" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>26</v>
+      </c>
+      <c r="B859" t="n">
+        <v>857</v>
+      </c>
+      <c r="C859" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>26</v>
+      </c>
+      <c r="B860" t="n">
+        <v>858</v>
+      </c>
+      <c r="C860" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>26</v>
+      </c>
+      <c r="B861" t="n">
+        <v>859</v>
+      </c>
+      <c r="C861" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>26</v>
+      </c>
+      <c r="B862" t="n">
+        <v>860</v>
+      </c>
+      <c r="C862" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>26</v>
+      </c>
+      <c r="B863" t="n">
+        <v>861</v>
+      </c>
+      <c r="C863" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>26</v>
+      </c>
+      <c r="B864" t="n">
+        <v>862</v>
+      </c>
+      <c r="C864" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>26</v>
+      </c>
+      <c r="B865" t="n">
+        <v>863</v>
+      </c>
+      <c r="C865" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>26</v>
+      </c>
+      <c r="B866" t="n">
+        <v>864</v>
+      </c>
+      <c r="C866" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>26</v>
+      </c>
+      <c r="B867" t="n">
+        <v>865</v>
+      </c>
+      <c r="C867" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>26</v>
+      </c>
+      <c r="B868" t="n">
+        <v>866</v>
+      </c>
+      <c r="C868" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>26</v>
+      </c>
+      <c r="B869" t="n">
+        <v>867</v>
+      </c>
+      <c r="C869" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>26</v>
+      </c>
+      <c r="B870" t="n">
+        <v>868</v>
+      </c>
+      <c r="C870" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>26</v>
+      </c>
+      <c r="B871" t="n">
+        <v>869</v>
+      </c>
+      <c r="C871" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>26</v>
+      </c>
+      <c r="B872" t="n">
+        <v>870</v>
+      </c>
+      <c r="C872" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>26</v>
+      </c>
+      <c r="B873" t="n">
+        <v>871</v>
+      </c>
+      <c r="C873" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>26</v>
+      </c>
+      <c r="B874" t="n">
+        <v>872</v>
+      </c>
+      <c r="C874" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>26</v>
+      </c>
+      <c r="B875" t="n">
+        <v>873</v>
+      </c>
+      <c r="C875" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>26</v>
+      </c>
+      <c r="B876" t="n">
+        <v>874</v>
+      </c>
+      <c r="C876" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>26</v>
+      </c>
+      <c r="B877" t="n">
+        <v>875</v>
+      </c>
+      <c r="C877" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>26</v>
+      </c>
+      <c r="B878" t="n">
+        <v>876</v>
+      </c>
+      <c r="C878" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>26</v>
+      </c>
+      <c r="B879" t="n">
+        <v>877</v>
+      </c>
+      <c r="C879" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>26</v>
+      </c>
+      <c r="B880" t="n">
+        <v>878</v>
+      </c>
+      <c r="C880" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>26</v>
+      </c>
+      <c r="B881" t="n">
+        <v>879</v>
+      </c>
+      <c r="C881" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>26</v>
+      </c>
+      <c r="B882" t="n">
+        <v>880</v>
+      </c>
+      <c r="C882" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>26</v>
+      </c>
+      <c r="B883" t="n">
+        <v>881</v>
+      </c>
+      <c r="C883" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>26</v>
+      </c>
+      <c r="B884" t="n">
+        <v>882</v>
+      </c>
+      <c r="C884" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>26</v>
+      </c>
+      <c r="B885" t="n">
+        <v>883</v>
+      </c>
+      <c r="C885" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>26</v>
+      </c>
+      <c r="B886" t="n">
+        <v>884</v>
+      </c>
+      <c r="C886" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>26</v>
+      </c>
+      <c r="B887" t="n">
+        <v>885</v>
+      </c>
+      <c r="C887" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>26</v>
+      </c>
+      <c r="B888" t="n">
+        <v>886</v>
+      </c>
+      <c r="C888" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>26</v>
+      </c>
+      <c r="B889" t="n">
+        <v>887</v>
+      </c>
+      <c r="C889" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>26</v>
+      </c>
+      <c r="B890" t="n">
+        <v>888</v>
+      </c>
+      <c r="C890" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>26</v>
+      </c>
+      <c r="B891" t="n">
+        <v>889</v>
+      </c>
+      <c r="C891" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>26</v>
+      </c>
+      <c r="B892" t="n">
+        <v>890</v>
+      </c>
+      <c r="C892" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>26</v>
+      </c>
+      <c r="B893" t="n">
+        <v>891</v>
+      </c>
+      <c r="C893" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>26</v>
+      </c>
+      <c r="B894" t="n">
+        <v>892</v>
+      </c>
+      <c r="C894" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>26</v>
+      </c>
+      <c r="B895" t="n">
+        <v>893</v>
+      </c>
+      <c r="C895" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>26</v>
+      </c>
+      <c r="B896" t="n">
+        <v>894</v>
+      </c>
+      <c r="C896" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>26</v>
+      </c>
+      <c r="B897" t="n">
+        <v>895</v>
+      </c>
+      <c r="C897" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>26</v>
+      </c>
+      <c r="B898" t="n">
+        <v>896</v>
+      </c>
+      <c r="C898" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>26</v>
+      </c>
+      <c r="B899" t="n">
+        <v>897</v>
+      </c>
+      <c r="C899" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>26</v>
+      </c>
+      <c r="B900" t="n">
+        <v>898</v>
+      </c>
+      <c r="C900" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>26</v>
+      </c>
+      <c r="B901" t="n">
+        <v>899</v>
+      </c>
+      <c r="C901" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>26</v>
+      </c>
+      <c r="B902" t="n">
+        <v>900</v>
+      </c>
+      <c r="C902" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>26</v>
+      </c>
+      <c r="B903" t="n">
+        <v>901</v>
+      </c>
+      <c r="C903" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>26</v>
+      </c>
+      <c r="B904" t="n">
+        <v>902</v>
+      </c>
+      <c r="C904" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>26</v>
+      </c>
+      <c r="B905" t="n">
+        <v>903</v>
+      </c>
+      <c r="C905" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>26</v>
+      </c>
+      <c r="B906" t="n">
+        <v>904</v>
+      </c>
+      <c r="C906" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>26</v>
+      </c>
+      <c r="B907" t="n">
+        <v>905</v>
+      </c>
+      <c r="C907" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>26</v>
+      </c>
+      <c r="B908" t="n">
+        <v>906</v>
+      </c>
+      <c r="C908" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>26</v>
+      </c>
+      <c r="B909" t="n">
+        <v>907</v>
+      </c>
+      <c r="C909" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>26</v>
+      </c>
+      <c r="B910" t="n">
+        <v>908</v>
+      </c>
+      <c r="C910" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>26</v>
+      </c>
+      <c r="B911" t="n">
+        <v>909</v>
+      </c>
+      <c r="C911" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>26</v>
+      </c>
+      <c r="B912" t="n">
+        <v>910</v>
+      </c>
+      <c r="C912" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>26</v>
+      </c>
+      <c r="B913" t="n">
+        <v>911</v>
+      </c>
+      <c r="C913" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>26</v>
+      </c>
+      <c r="B914" t="n">
+        <v>912</v>
+      </c>
+      <c r="C914" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>26</v>
+      </c>
+      <c r="B915" t="n">
+        <v>913</v>
+      </c>
+      <c r="C915" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>26</v>
+      </c>
+      <c r="B916" t="n">
+        <v>914</v>
+      </c>
+      <c r="C916" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>26</v>
+      </c>
+      <c r="B917" t="n">
+        <v>915</v>
+      </c>
+      <c r="C917" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>26</v>
+      </c>
+      <c r="B918" t="n">
+        <v>916</v>
+      </c>
+      <c r="C918" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>26</v>
+      </c>
+      <c r="B919" t="n">
+        <v>917</v>
+      </c>
+      <c r="C919" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>26</v>
+      </c>
+      <c r="B920" t="n">
+        <v>918</v>
+      </c>
+      <c r="C920" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>26</v>
+      </c>
+      <c r="B921" t="n">
+        <v>919</v>
+      </c>
+      <c r="C921" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>26</v>
+      </c>
+      <c r="B922" t="n">
+        <v>920</v>
+      </c>
+      <c r="C922" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>26</v>
+      </c>
+      <c r="B923" t="n">
+        <v>921</v>
+      </c>
+      <c r="C923" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>26</v>
+      </c>
+      <c r="B924" t="n">
+        <v>922</v>
+      </c>
+      <c r="C924" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>26</v>
+      </c>
+      <c r="B925" t="n">
+        <v>923</v>
+      </c>
+      <c r="C925" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>26</v>
+      </c>
+      <c r="B926" t="n">
+        <v>924</v>
+      </c>
+      <c r="C926" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>26</v>
+      </c>
+      <c r="B927" t="n">
+        <v>925</v>
+      </c>
+      <c r="C927" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>26</v>
+      </c>
+      <c r="B928" t="n">
+        <v>926</v>
+      </c>
+      <c r="C928" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>26</v>
+      </c>
+      <c r="B929" t="n">
+        <v>927</v>
+      </c>
+      <c r="C929" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>26</v>
+      </c>
+      <c r="B930" t="n">
+        <v>928</v>
+      </c>
+      <c r="C930" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>26</v>
+      </c>
+      <c r="B931" t="n">
+        <v>929</v>
+      </c>
+      <c r="C931" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>26</v>
+      </c>
+      <c r="B932" t="n">
+        <v>930</v>
+      </c>
+      <c r="C932" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>26</v>
+      </c>
+      <c r="B933" t="n">
+        <v>931</v>
+      </c>
+      <c r="C933" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>26</v>
+      </c>
+      <c r="B934" t="n">
+        <v>932</v>
+      </c>
+      <c r="C934" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>26</v>
+      </c>
+      <c r="B935" t="n">
+        <v>933</v>
+      </c>
+      <c r="C935" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>26</v>
+      </c>
+      <c r="B936" t="n">
+        <v>934</v>
+      </c>
+      <c r="C936" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>26</v>
+      </c>
+      <c r="B937" t="n">
+        <v>935</v>
+      </c>
+      <c r="C937" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>26</v>
+      </c>
+      <c r="B938" t="n">
+        <v>936</v>
+      </c>
+      <c r="C938" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>26</v>
+      </c>
+      <c r="B939" t="n">
+        <v>937</v>
+      </c>
+      <c r="C939" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>26</v>
+      </c>
+      <c r="B940" t="n">
+        <v>938</v>
+      </c>
+      <c r="C940" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>26</v>
+      </c>
+      <c r="B941" t="n">
+        <v>939</v>
+      </c>
+      <c r="C941" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>26</v>
+      </c>
+      <c r="B942" t="n">
+        <v>940</v>
+      </c>
+      <c r="C942" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>26</v>
+      </c>
+      <c r="B943" t="n">
+        <v>941</v>
+      </c>
+      <c r="C943" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>26</v>
+      </c>
+      <c r="B944" t="n">
+        <v>942</v>
+      </c>
+      <c r="C944" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>26</v>
+      </c>
+      <c r="B945" t="n">
+        <v>943</v>
+      </c>
+      <c r="C945" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>26</v>
+      </c>
+      <c r="B946" t="n">
+        <v>944</v>
+      </c>
+      <c r="C946" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>26</v>
+      </c>
+      <c r="B947" t="n">
+        <v>945</v>
+      </c>
+      <c r="C947" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>26</v>
+      </c>
+      <c r="B948" t="n">
+        <v>946</v>
+      </c>
+      <c r="C948" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>26</v>
+      </c>
+      <c r="B949" t="n">
+        <v>947</v>
+      </c>
+      <c r="C949" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>26</v>
+      </c>
+      <c r="B950" t="n">
+        <v>948</v>
+      </c>
+      <c r="C950" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>26</v>
+      </c>
+      <c r="B951" t="n">
+        <v>949</v>
+      </c>
+      <c r="C951" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>26</v>
+      </c>
+      <c r="B952" t="n">
+        <v>950</v>
+      </c>
+      <c r="C952" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>26</v>
+      </c>
+      <c r="B953" t="n">
+        <v>951</v>
+      </c>
+      <c r="C953" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>26</v>
+      </c>
+      <c r="B954" t="n">
+        <v>952</v>
+      </c>
+      <c r="C954" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>26</v>
+      </c>
+      <c r="B955" t="n">
+        <v>953</v>
+      </c>
+      <c r="C955" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>26</v>
+      </c>
+      <c r="B956" t="n">
+        <v>954</v>
+      </c>
+      <c r="C956" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>26</v>
+      </c>
+      <c r="B957" t="n">
+        <v>955</v>
+      </c>
+      <c r="C957" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>26</v>
+      </c>
+      <c r="B958" t="n">
+        <v>956</v>
+      </c>
+      <c r="C958" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>26</v>
+      </c>
+      <c r="B959" t="n">
+        <v>957</v>
+      </c>
+      <c r="C959" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>26</v>
+      </c>
+      <c r="B960" t="n">
+        <v>958</v>
+      </c>
+      <c r="C960" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>26</v>
+      </c>
+      <c r="B961" t="n">
+        <v>959</v>
+      </c>
+      <c r="C961" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>26</v>
+      </c>
+      <c r="B962" t="n">
+        <v>960</v>
+      </c>
+      <c r="C962" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>26</v>
+      </c>
+      <c r="B963" t="n">
+        <v>961</v>
+      </c>
+      <c r="C963" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>26</v>
+      </c>
+      <c r="B964" t="n">
+        <v>962</v>
+      </c>
+      <c r="C964" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>26</v>
+      </c>
+      <c r="B965" t="n">
+        <v>963</v>
+      </c>
+      <c r="C965" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>26</v>
+      </c>
+      <c r="B966" t="n">
+        <v>964</v>
+      </c>
+      <c r="C966" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>26</v>
+      </c>
+      <c r="B967" t="n">
+        <v>965</v>
+      </c>
+      <c r="C967" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>26</v>
+      </c>
+      <c r="B968" t="n">
+        <v>966</v>
+      </c>
+      <c r="C968" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>26</v>
+      </c>
+      <c r="B969" t="n">
+        <v>967</v>
+      </c>
+      <c r="C969" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>26</v>
+      </c>
+      <c r="B970" t="n">
+        <v>968</v>
+      </c>
+      <c r="C970" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>26</v>
+      </c>
+      <c r="B971" t="n">
+        <v>969</v>
+      </c>
+      <c r="C971" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>26</v>
+      </c>
+      <c r="B972" t="n">
+        <v>970</v>
+      </c>
+      <c r="C972" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>26</v>
+      </c>
+      <c r="B973" t="n">
+        <v>971</v>
+      </c>
+      <c r="C973" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>26</v>
+      </c>
+      <c r="B974" t="n">
+        <v>972</v>
+      </c>
+      <c r="C974" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>26</v>
+      </c>
+      <c r="B975" t="n">
+        <v>973</v>
+      </c>
+      <c r="C975" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>26</v>
+      </c>
+      <c r="B976" t="n">
+        <v>974</v>
+      </c>
+      <c r="C976" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>26</v>
+      </c>
+      <c r="B977" t="n">
+        <v>975</v>
+      </c>
+      <c r="C977" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>26</v>
+      </c>
+      <c r="B978" t="n">
+        <v>976</v>
+      </c>
+      <c r="C978" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>26</v>
+      </c>
+      <c r="B979" t="n">
+        <v>977</v>
+      </c>
+      <c r="C979" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>26</v>
+      </c>
+      <c r="B980" t="n">
+        <v>978</v>
+      </c>
+      <c r="C980" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>26</v>
+      </c>
+      <c r="B981" t="n">
+        <v>979</v>
+      </c>
+      <c r="C981" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>26</v>
+      </c>
+      <c r="B982" t="n">
+        <v>980</v>
+      </c>
+      <c r="C982" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>26</v>
+      </c>
+      <c r="B983" t="n">
+        <v>981</v>
+      </c>
+      <c r="C983" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>26</v>
+      </c>
+      <c r="B984" t="n">
+        <v>982</v>
+      </c>
+      <c r="C984" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>26</v>
+      </c>
+      <c r="B985" t="n">
+        <v>983</v>
+      </c>
+      <c r="C985" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>26</v>
+      </c>
+      <c r="B986" t="n">
+        <v>984</v>
+      </c>
+      <c r="C986" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>26</v>
+      </c>
+      <c r="B987" t="n">
+        <v>985</v>
+      </c>
+      <c r="C987" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>26</v>
+      </c>
+      <c r="B988" t="n">
+        <v>986</v>
+      </c>
+      <c r="C988" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>26</v>
+      </c>
+      <c r="B989" t="n">
+        <v>987</v>
+      </c>
+      <c r="C989" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>26</v>
+      </c>
+      <c r="B990" t="n">
+        <v>988</v>
+      </c>
+      <c r="C990" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>26</v>
+      </c>
+      <c r="B991" t="n">
+        <v>989</v>
+      </c>
+      <c r="C991" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>26</v>
+      </c>
+      <c r="B992" t="n">
+        <v>990</v>
+      </c>
+      <c r="C992" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>26</v>
+      </c>
+      <c r="B993" t="n">
+        <v>991</v>
+      </c>
+      <c r="C993" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>26</v>
+      </c>
+      <c r="B994" t="n">
+        <v>992</v>
+      </c>
+      <c r="C994" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>26</v>
+      </c>
+      <c r="B995" t="n">
+        <v>993</v>
+      </c>
+      <c r="C995" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>26</v>
+      </c>
+      <c r="B996" t="n">
+        <v>994</v>
+      </c>
+      <c r="C996" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>26</v>
+      </c>
+      <c r="B997" t="n">
+        <v>995</v>
+      </c>
+      <c r="C997" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>26</v>
+      </c>
+      <c r="B998" t="n">
+        <v>996</v>
+      </c>
+      <c r="C998" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>26</v>
+      </c>
+      <c r="B999" t="n">
+        <v>997</v>
+      </c>
+      <c r="C999" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>998</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>999</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1002" t="n">
         <v>7293</v>
       </c>
     </row>
